--- a/Experiment Summaries.xlsx
+++ b/Experiment Summaries.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hmas0003/Github/ARSA-UncertaintyLitReview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47E1AE77-49D9-7E47-A819-BF6AC90C41C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2E77FA-15EC-014F-B365-BDD096D5AEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{4A7B5C7E-8352-474A-9AD6-8B7A859B9CB3}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="3" xr2:uid="{4A7B5C7E-8352-474A-9AD6-8B7A859B9CB3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plot Comparison" sheetId="1" r:id="rId1"/>
+    <sheet name="Paper Details" sheetId="1" r:id="rId1"/>
+    <sheet name="Plot Details" sheetId="2" r:id="rId2"/>
+    <sheet name="Question Details" sheetId="3" r:id="rId3"/>
+    <sheet name="Plot &amp; Paper Details" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>Bib Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="96">
   <si>
     <t>Paper Name</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Questions</t>
   </si>
   <si>
-    <t>Justification of Questions</t>
-  </si>
-  <si>
     <t>Method Participants Used</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>Plot Name</t>
   </si>
   <si>
-    <t>Plot Uncertainty</t>
-  </si>
-  <si>
     <t>Definition Uncertainty</t>
   </si>
   <si>
@@ -89,15 +83,6 @@
     <t>Per Question</t>
   </si>
   <si>
-    <t>Per Plot (Uncertainty)</t>
-  </si>
-  <si>
-    <t>Level (point/range/function/outcomes)</t>
-  </si>
-  <si>
-    <t>Source (include multiple if applicable)</t>
-  </si>
-  <si>
     <t>Context Description</t>
   </si>
   <si>
@@ -110,20 +95,245 @@
     <t>Per Question Per Plot</t>
   </si>
   <si>
-    <t>Task for Ground Truth Statistic</t>
-  </si>
-  <si>
     <t>Task For Alternative Statistic</t>
   </si>
   <si>
     <t>Justification of Plots Used</t>
+  </si>
+  <si>
+    <t>Additional Notes</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>Collected Metric</t>
+  </si>
+  <si>
+    <t>Graphical Communication of Uncertain Quantities to Nontechnical People</t>
+  </si>
+  <si>
+    <t>Ibrekk1987</t>
+  </si>
+  <si>
+    <t>Engineers - Laypeople</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>Additional Comments</t>
+  </si>
+  <si>
+    <t>All depictions of PDF (or related CDF). They just kind of state “formally equivalent representations are often not psychologically eqivalent” which implies their plots are formally equivalent.</t>
+  </si>
+  <si>
+    <t>95% Confidence interval</t>
+  </si>
+  <si>
+    <t>Bar chart</t>
+  </si>
+  <si>
+    <t>Pie Chart</t>
+  </si>
+  <si>
+    <t>Density Function</t>
+  </si>
+  <si>
+    <t>Violin Plot</t>
+  </si>
+  <si>
+    <t>Gradient/Fade</t>
+  </si>
+  <si>
+    <t>Box Plot</t>
+  </si>
+  <si>
+    <t>Spine plot</t>
+  </si>
+  <si>
+    <t>Cumulative Probability</t>
+  </si>
+  <si>
+    <t>Underlying Distribution</t>
+  </si>
+  <si>
+    <t>Uncertainty Source</t>
+  </si>
+  <si>
+    <t>Skewed Normal. It is unclear if the data used to generate the plots was continuous or discrete</t>
+  </si>
+  <si>
+    <t>Single Marginal</t>
+  </si>
+  <si>
+    <t>Inferential</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Descriptive</t>
+  </si>
+  <si>
+    <t>Per Plot (Visual Features, Not Mathematical)</t>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>8 Bins</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>~40 bins</t>
+  </si>
+  <si>
+    <t>3 Markers (0.025, mean, 0.025)</t>
+  </si>
+  <si>
+    <t>5 Markers (min, q1, med, q3, max)</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>Level (point, function, etc)</t>
+  </si>
+  <si>
+    <t>Function - PDF/CDF</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>Single Continuous Variable</t>
+  </si>
+  <si>
+    <t>Not really a confidence interval? It seems to be a 95% confidence interval for the entire distribution, not the sampling distribution, so I am not sure the authors know what a confidence interval is.</t>
+  </si>
+  <si>
+    <t>Boundary points like (0,2) and (2,4) make it hard to tell how is there is supposed to be a probability for a single value. The continuous/discrete distinction makes this hard too.</t>
+  </si>
+  <si>
+    <t>Similar to the bar chart issues except you also need to map back to the legend which has textures AND shading for some reason.</t>
+  </si>
+  <si>
+    <t>People interpreted this similar to a density which makes sense since I don’t think many people would have seen this before</t>
+  </si>
+  <si>
+    <t>The gradient looks continuous but this paper is pretty old so it is hard to tell</t>
+  </si>
+  <si>
+    <t>Find the best estimate</t>
+  </si>
+  <si>
+    <t>What are the chances the snow will fall within a certain range?</t>
+  </si>
+  <si>
+    <t>How confidence are you in your response? (for all questions)</t>
+  </si>
+  <si>
+    <t>Scale from 1 = not sure to 5 = Very Sure</t>
+  </si>
+  <si>
+    <t>Have you seen this information communicated with this plot before?</t>
+  </si>
+  <si>
+    <t>What are the chances there will be more than a certain amount of snow?</t>
+  </si>
+  <si>
+    <t>Single Number</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Mode (most likely snow)</t>
+  </si>
+  <si>
+    <t>Comment on Question</t>
+  </si>
+  <si>
+    <t>By "best" they meant the estimate that "minimused the error" however that is not clear. In their effort to avoid non-technical language they were cryptic so it is unlcear in participants misunderstood</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Yes/No with Details</t>
+  </si>
+  <si>
+    <t>Paper ID</t>
+  </si>
+  <si>
+    <t>Plot</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Best Estimate</t>
+  </si>
+  <si>
+    <t>Short Form</t>
+  </si>
+  <si>
+    <t>Chances</t>
+  </si>
+  <si>
+    <t>Chances Range</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>Farmiliar Info</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Use Plot?</t>
+  </si>
+  <si>
+    <t>This paper is pretty old so I don’t think it makes sense to be harsh on it in isolation</t>
+  </si>
+  <si>
+    <t>P(b&lt;X&lt;a)</t>
+  </si>
+  <si>
+    <t>P(X&gt;a)</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Elementary Task - Position</t>
+  </si>
+  <si>
+    <t>Inference</t>
+  </si>
+  <si>
+    <t>Task for Ground Truth Statistic (Elementary Task/Grouping/Visual Statistics/ Prediction)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -131,13 +341,131 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -149,14 +477,97 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -468,124 +879,928 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BADF4D-C988-1E43-902D-EA5663E83238}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="75" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" customWidth="1"/>
-    <col min="9" max="9" width="23.1640625" customWidth="1"/>
-    <col min="10" max="10" width="23.83203125" customWidth="1"/>
-    <col min="11" max="11" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5" customWidth="1"/>
+    <col min="14" max="14" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="54" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="40" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:27" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="16"/>
+    </row>
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA2" s="13"/>
+    </row>
+    <row r="3" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08F0B8E-4B82-6240-BC95-3A5A4BC55392}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView zoomScale="86" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="31" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="29"/>
+      <c r="B4" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="29"/>
+      <c r="B5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="29"/>
+      <c r="B6" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="28"/>
+    </row>
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="28"/>
+    </row>
+    <row r="8" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="28"/>
+    </row>
+    <row r="10" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="28"/>
+    </row>
+    <row r="11" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061E393E-53BD-1144-9AF6-352F1C29C730}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+      <c r="H2" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
+      <c r="B4" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="30"/>
+    </row>
+    <row r="5" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
+      <c r="B5" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C890D0AB-23F0-F346-AEBC-8F5300430CF5}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" ht="26" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
+      <c r="F2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.2">
-      <c r="F25" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" t="s">
-        <v>4</v>
+      <c r="B3" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="21"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="21"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="21"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="21"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="21"/>
+      <c r="B12" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="21"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="21"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="21"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A21" s="21"/>
+      <c r="B21" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="21"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="21"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="21"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="21"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="21"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="23" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="B12:B20"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="A3:A29"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Experiment Summaries.xlsx
+++ b/Experiment Summaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hmas0003/Github/ARSA-UncertaintyLitReview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2E77FA-15EC-014F-B365-BDD096D5AEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D8DC90-3E5A-6E45-ABBD-4D9869611612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="3" xr2:uid="{4A7B5C7E-8352-474A-9AD6-8B7A859B9CB3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" activeTab="3" xr2:uid="{4A7B5C7E-8352-474A-9AD6-8B7A859B9CB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Paper Details" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="121">
   <si>
     <t>Paper Name</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Per Question Per Plot</t>
   </si>
   <si>
-    <t>Task For Alternative Statistic</t>
-  </si>
-  <si>
     <t>Justification of Plots Used</t>
   </si>
   <si>
@@ -323,17 +320,95 @@
     <t>Elementary Task - Position</t>
   </si>
   <si>
-    <t>Inference</t>
-  </si>
-  <si>
-    <t>Task for Ground Truth Statistic (Elementary Task/Grouping/Visual Statistics/ Prediction)</t>
+    <t>Task for Ground Truth Statistic</t>
+  </si>
+  <si>
+    <t>Mode: Elementary Task - Lengths (or really just the dark area)</t>
+  </si>
+  <si>
+    <t>Mode: Elementary Task - Darkest Area</t>
+  </si>
+  <si>
+    <t>Mode: Elementary Task - Position</t>
+  </si>
+  <si>
+    <t>Mode: Elementary Task - Biggest area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean: Elementary task, position </t>
+  </si>
+  <si>
+    <t>Picked the mean (the explanation made no change)</t>
+  </si>
+  <si>
+    <t>They do not mark the median in the solutions but the answer is slightly shifted towards the mode of the skewed distribution which makes me think the y were providing the median</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median: Elementary task - position </t>
+  </si>
+  <si>
+    <t>Task For Visually Suggested Statistic</t>
+  </si>
+  <si>
+    <t>?? I literally don’t know how you would get the mean from a CDF. I would probably just pick the median or something halfway along the axis</t>
+  </si>
+  <si>
+    <t>People seemed to have no idea how to read this plot and they basically did what I was thinking or something random. The explanation did not help</t>
+  </si>
+  <si>
+    <t>Mode (the explanation made this worse)</t>
+  </si>
+  <si>
+    <t>Mode (explanation made it slightly better)</t>
+  </si>
+  <si>
+    <t>Not marked in their solutions but it looks like it is also the mode (explanation made it slightly better)</t>
+  </si>
+  <si>
+    <t>Mode (the explanation did not help)</t>
+  </si>
+  <si>
+    <t>Mode  (the explanation did not help)</t>
+  </si>
+  <si>
+    <t>Mode  (the explanation made it worse)</t>
+  </si>
+  <si>
+    <t>Something similar to the box plot but with no x-axis guide because it is a pie chart.</t>
+  </si>
+  <si>
+    <t>Find mode (max in the PDF), and then shift the mean slightly using a heuristic based off the skew/tail of the distributions</t>
+  </si>
+  <si>
+    <t>Find the media value and then shift flightly based off the skew (less than you would if using the mode)</t>
+  </si>
+  <si>
+    <t>I literally don’t know how you could work this out</t>
+  </si>
+  <si>
+    <t>??: Find the length of the bar that is from 0 to a and compare that to the total length of the bar. This metric probably not take the skew into account</t>
+  </si>
+  <si>
+    <t>?? I don’t know how you can work this out without just using a heuristic</t>
+  </si>
+  <si>
+    <t>Find a and add the probabilities (using the position) for all the probabilities where a&lt;X and add them up</t>
+  </si>
+  <si>
+    <t>Add the probabilities (using the explicit values) for all the probabilities where a&lt;X and add them up</t>
+  </si>
+  <si>
+    <t>Find a and use a heuristic for the proportion of total area that is between a and 0</t>
+  </si>
+  <si>
+    <t>The results are much more varied that when they were directly reading the mean. After the explanation the values center on the linear heuristic (without taking the skew into account)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -383,6 +458,20 @@
       <b/>
       <sz val="22"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -468,7 +557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -476,12 +565,66 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color theme="7" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thick">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thick">
+        <color theme="9" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3">
+      <alignment wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -493,18 +636,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -515,29 +646,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -546,31 +655,88 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="3">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="PaperID" xfId="2" xr:uid="{F880A1D8-7879-D243-AA24-148CFF0AEDC8}"/>
+    <cellStyle name="PlotID" xfId="4" xr:uid="{53DB2D3B-1678-0245-88D0-0FD2EFECEFB5}"/>
+    <cellStyle name="QuestionID" xfId="3" xr:uid="{3AA70428-1646-C743-932C-9AC7A2130EC2}"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="1">
+    <dxf>
+      <border>
+        <left style="slantDashDot">
+          <color theme="4"/>
+        </left>
+        <right style="slantDashDot">
+          <color theme="4"/>
+        </right>
+        <top style="slantDashDot">
+          <color theme="4"/>
+        </top>
+        <bottom style="slantDashDot">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{B9ADA59B-7C0E-5E48-9E79-FB77B5C86C0B}">
+      <tableStyleElement type="firstRowStripe" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -882,7 +1048,7 @@
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -913,28 +1079,28 @@
     <col min="24" max="24" width="47.33203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="43.33203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="40" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="26" style="17" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="16"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="9"/>
     </row>
     <row r="2" spans="1:27" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -946,49 +1112,48 @@
         <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="85" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA2" s="13"/>
-    </row>
-    <row r="3" spans="1:27" ht="85" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>89</v>
+      <c r="I3" s="14" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1004,7 +1169,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1023,328 +1188,328 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="A1" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="22"/>
+      <c r="B4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="28" t="s">
+      <c r="G4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="22"/>
+      <c r="B5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
+      <c r="B6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="F6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="22"/>
+      <c r="B7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="22"/>
+      <c r="B8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="E8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="22"/>
+      <c r="B9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="22"/>
+      <c r="B10" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="28" t="s">
+      <c r="I10" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K3" s="28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="28" t="s">
+      <c r="J10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" s="22"/>
+      <c r="B11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="28" t="s">
+      <c r="I11" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
-      <c r="B5" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="28" t="s">
+      <c r="J11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="14" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="28"/>
-    </row>
-    <row r="8" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="28"/>
-    </row>
-    <row r="10" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="28"/>
-    </row>
-    <row r="11" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="28" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1361,8 +1526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{061E393E-53BD-1144-9AF6-352F1C29C730}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H7"/>
+    <sheetView topLeftCell="C3" zoomScale="143" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1377,148 +1542,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="24"/>
+      <c r="B4" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="31" t="s">
+      <c r="C4" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="24"/>
+      <c r="B5" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D5" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="24"/>
+      <c r="B6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="31" t="s">
+      <c r="E6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" s="24"/>
+      <c r="B7" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E7" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="30"/>
-    </row>
-    <row r="5" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="H5" s="30"/>
-    </row>
-    <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="30"/>
-    </row>
-    <row r="7" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="H7" s="30"/>
+      <c r="H7" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1532,10 +1697,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C890D0AB-23F0-F346-AEBC-8F5300430CF5}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1544,252 +1709,385 @@
     <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="12" t="s">
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+    </row>
+    <row r="2" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="F8" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="87" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="70" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="87" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27"/>
+      <c r="B12" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="27"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="23" t="s">
+      <c r="D13" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="23" t="s">
+      <c r="D14" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:6" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="23" t="s">
+      <c r="D15" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="23" t="s">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="23" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="23" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="23" t="s">
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+    </row>
+    <row r="25" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+    </row>
+    <row r="26" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="25" t="s">
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="25" t="s">
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="11" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="D1:F1"/>

--- a/Experiment Summaries.xlsx
+++ b/Experiment Summaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hmas0003/Github/ARSA-UncertaintyLitReview/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D8DC90-3E5A-6E45-ABBD-4D9869611612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E063AD-BD22-CA4F-AE08-F460BB0D4F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" activeTab="3" xr2:uid="{4A7B5C7E-8352-474A-9AD6-8B7A859B9CB3}"/>
+    <workbookView xWindow="2400" yWindow="3560" windowWidth="17840" windowHeight="17660" xr2:uid="{4A7B5C7E-8352-474A-9AD6-8B7A859B9CB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Paper Details" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="125">
   <si>
     <t>Paper Name</t>
   </si>
@@ -320,9 +320,6 @@
     <t>Elementary Task - Position</t>
   </si>
   <si>
-    <t>Task for Ground Truth Statistic</t>
-  </si>
-  <si>
     <t>Mode: Elementary Task - Lengths (or really just the dark area)</t>
   </si>
   <si>
@@ -347,9 +344,6 @@
     <t xml:space="preserve">Median: Elementary task - position </t>
   </si>
   <si>
-    <t>Task For Visually Suggested Statistic</t>
-  </si>
-  <si>
     <t>?? I literally don’t know how you would get the mean from a CDF. I would probably just pick the median or something halfway along the axis</t>
   </si>
   <si>
@@ -402,6 +396,24 @@
   </si>
   <si>
     <t>The results are much more varied that when they were directly reading the mean. After the explanation the values center on the linear heuristic (without taking the skew into account)</t>
+  </si>
+  <si>
+    <t>Visually Suggested Statistic Task</t>
+  </si>
+  <si>
+    <t>Ground Truth Statistic Task</t>
+  </si>
+  <si>
+    <t>Sanyal2009</t>
+  </si>
+  <si>
+    <t>Geoscience</t>
+  </si>
+  <si>
+    <t>A user study to compare four uncertainty visualization methods for 1D and 2D datasets</t>
+  </si>
+  <si>
+    <t>The background goes through a lot of definitions of uncertainty that are considered but they don’t acutally mention which one they are subscribing to for this paper. They acknowledge that uncertainty needs to be defined before being visualised (but don't do that), mention the CIPM two classes of uncertainty (random and systematic uncertainty) which is what I think they use in the paper. They also mention NIST uncertainty, several uncertainty taxonomies,  . They also mention that uncertainty can be introduced at any stage.</t>
   </si>
 </sst>
 </file>
@@ -629,14 +641,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -670,9 +675,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -705,6 +707,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1045,23 +1059,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BADF4D-C988-1E43-902D-EA5663E83238}">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="57" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="57" workbookViewId="0">
+      <selection activeCell="E17" sqref="E8:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5" style="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21.5" bestFit="1" customWidth="1"/>
@@ -1082,78 +1096,92 @@
     <col min="27" max="27" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="3" customFormat="1" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:27" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="5" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="9"/>
-    </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="AA1" s="6"/>
+    </row>
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="30" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="85" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="11" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="255" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1188,327 +1216,327 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
-      <c r="B4" s="14" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="22"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="11" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="22"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="14"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="22"/>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="14"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
-      <c r="B8" s="14" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="14"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="22"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="14"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14" t="s">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1542,148 +1570,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="26" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="24"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="H4" s="15"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="24"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="15"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A6" s="24"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="15"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="H7" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1699,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C890D0AB-23F0-F346-AEBC-8F5300430CF5}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView zoomScale="110" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1714,378 +1742,378 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="8" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F9" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="87" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="70" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="10" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="87" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="11" t="s">
+      <c r="D12" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="11" t="s">
+      <c r="D13" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="11" t="s">
+      <c r="D14" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="11" t="s">
+      <c r="D15" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="11" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="53" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="11" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="87" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="11" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="70" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="11" t="s">
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="87" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="13" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:6" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="13" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:6" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="13" t="s">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="13" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="13" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="13" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="13" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="13" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:6" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-    </row>
-    <row r="25" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
